--- a/app/Recursos Marcas/Verdelimon/Plantilla modificada.xlsx
+++ b/app/Recursos Marcas/Verdelimon/Plantilla modificada.xlsx
@@ -784,13 +784,13 @@
     <t>['https://recursosmolova.s3.amazonaws.com/Products+Images/Verdelimon/Nasau+One+Piece+Black+Fruteros/Nasau+One+Piece+Black+Fruteros+1+Estampado.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Verdelimon/Nasau+One+Piece+Black+Fruteros/Nasau+One+Piece+Black+Fruteros+2+Estampado.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Verdelimon/Nasau+One+Piece+Black+Fruteros/Nasau+One+Piece+Black+Fruteros+3+Estampado.jpg']</t>
   </si>
   <si>
-    <t>['https://recursosmolova.s3.amazonaws.com/Products+Images/Verdelimon/Trinidad+One+Piece+White+Piคa/Trinidad+One+Piece+White+Piคa+1+Estampado.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Verdelimon/Trinidad+One+Piece+White+Piคa/Trinidad+One+Piece+White+Piคa+2+Estampado.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Verdelimon/Trinidad+One+Piece+White+Piคa/Trinidad+One+Piece+White+Piคa+3+Estampado.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Verdelimon/Trinidad+One+Piece+White+Piคa/Trinidad+One+Piece+White+Piคa+4+Estampado.jpg']</t>
-  </si>
-  <si>
-    <t>['https://recursosmolova.s3.amazonaws.com/Products+Images/Verdelimon/Missouri+Top+Blue+Piคas/Missouri+Top+Blue+Piคas+1+Estampado.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Verdelimon/Missouri+Top+Blue+Piคas/Missouri+Top+Blue+Piคas+2+Estampado.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Verdelimon/Missouri+Top+Blue+Piคas/Missouri+Top+Blue+Piคas+3+Estampado.jpg']</t>
-  </si>
-  <si>
-    <t>['https://recursosmolova.s3.amazonaws.com/Products+Images/Verdelimon/Angeles+Bottom+Blue+Piคas/Angeles+Bottom+Blue+Piคas+1+Estampado.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Verdelimon/Angeles+Bottom+Blue+Piคas/Angeles+Bottom+Blue+Piคas+2+Estampado.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Verdelimon/Angeles+Bottom+Blue+Piคas/Angeles+Bottom+Blue+Piคas+3+estampado.jpg']</t>
+    <t>['https://recursosmolova.s3.amazonaws.com/Products+Images/Verdelimon/Trinidad+One+Piece+White+Pi%E0%B8%84a/Trinidad+One+Piece+White+Piคa+1+Estampado.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Verdelimon/Trinidad+One+Piece+White+Pi%E0%B8%84a/Trinidad+One+Piece+White+Piคa+2+Estampado.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Verdelimon/Trinidad+One+Piece+White+Pi%E0%B8%84a/Trinidad+One+Piece+White+Piคa+3+Estampado.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Verdelimon/Trinidad+One+Piece+White+Pi%E0%B8%84a/Trinidad+One+Piece+White+Piคa+4+Estampado.jpg']</t>
+  </si>
+  <si>
+    <t>['https://recursosmolova.s3.amazonaws.com/Products+Images/Verdelimon/Missouri+Top+Blue+Pi%E0%B8%84as/Missouri+Top+Blue+Piคas+1+Estampado.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Verdelimon/Missouri+Top+Blue+Pi%E0%B8%84as/Missouri+Top+Blue+Piคas+2+Estampado.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Verdelimon/Missouri+Top+Blue+Pi%E0%B8%84as/Missouri+Top+Blue+Piคas+3+Estampado.jpg']</t>
+  </si>
+  <si>
+    <t>['https://recursosmolova.s3.amazonaws.com/Products+Images/Verdelimon/Angeles+Bottom+Blue+Pi%E0%B8%84as/Angeles+Bottom+Blue+Piคas+1+Estampado.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Verdelimon/Angeles+Bottom+Blue+Pi%E0%B8%84as/Angeles+Bottom+Blue+Piคas+2+Estampado.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Verdelimon/Angeles+Bottom+Blue+Pi%E0%B8%84as/Angeles+Bottom+Blue+Piคas+3+estampado.jpg']</t>
   </si>
   <si>
     <t>['https://recursosmolova.s3.amazonaws.com/Products+Images/Verdelimon/Cabo+Top+White+Fruteros/Cabo+Top+White+Fruteros+1+Estampado.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Verdelimon/Cabo+Top+White+Fruteros/Cabo+Top+White+Fruteros+2+Estampado.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Verdelimon/Cabo+Top+White+Fruteros/Cabo+Top+White+Fruteros+3+Estampado.jpg']</t>
